--- a/birdsProject/Data.xlsx
+++ b/birdsProject/Data.xlsx
@@ -7,12 +7,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shay\Desktop\birdsProject\birdsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E208B31-E401-4A8D-85A3-2B8EDC510F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4CB5F-D5DE-4069-AC37-CEA3DC240959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="945" yWindow="1800" windowWidth="28800" windowHeight="10620"/>
+    <x:workbookView xWindow="7590" yWindow="4380" windowWidth="28800" windowHeight="10620" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="users" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Birds" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Cages" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:calcPr calcId="0"/>
   <x:extLst>
@@ -24,26 +25,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
-  <x:si>
-    <x:t>username</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shaylavi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>319065413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>s5d6634!</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Specie</t>
+  </si>
+  <si>
+    <t>Subspecie</t>
+  </si>
+  <si>
+    <t>Birth date</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Cage id</t>
+  </si>
+  <si>
+    <t>Father id</t>
+  </si>
+  <si>
+    <t>Mother id</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Hight</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>19011998</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>19/02/99</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>27121959</t>
+  </si>
+  <si>
+    <t>12345677</t>
+  </si>
+  <si>
+    <t>12345676</t>
+  </si>
+  <si>
+    <t>Matirial</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,9 +132,12 @@
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
   </x:cellXfs>
@@ -362,17 +420,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1:C2"/>
+  <x:dimension ref="A1:H4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="D4" sqref="D4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19" customWidth="1"/>
+    <x:col min="2" max="2" width="22" customWidth="1"/>
+    <x:col min="3" max="3" width="21" customWidth="1"/>
+    <x:col min="4" max="4" width="20.140625" customWidth="1"/>
+    <x:col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <x:col min="6" max="6" width="16" customWidth="1"/>
+    <x:col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <x:col min="8" max="8" width="15" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="1">
+        <x:v>12345677</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="2">
+        <x:v>21911</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="1">
+        <x:v>12345678</x:v>
+      </x:c>
+      <x:c r="G2" s="1">
+        <x:v>11111111</x:v>
+      </x:c>
+      <x:c r="H2" s="1">
+        <x:v>11111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="1">
+        <x:v>12345676</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="2">
+        <x:v>21911</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F3" s="1">
+        <x:v>12345678</x:v>
+      </x:c>
+      <x:c r="G3" s="1">
+        <x:v>11111111</x:v>
+      </x:c>
+      <x:c r="H3" s="1">
+        <x:v>11111111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <x:c r="A4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{4C1CCB87-1AF4-489A-AF67-5BAE6F6F2954}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1:E147"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C6" sqref="C6"/>
+      <x:selection activeCell="F7" sqref="F7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="19" customWidth="1"/>
-    <x:col min="2" max="2" width="22" customWidth="1"/>
-    <x:col min="3" max="3" width="21.140625" customWidth="1"/>
+    <x:col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <x:col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <x:col min="3" max="3" width="16" customWidth="1"/>
+    <x:col min="4" max="4" width="17" customWidth="1"/>
+    <x:col min="5" max="5" width="14" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1">
@@ -380,22 +569,915 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c r="A2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="A2" s="1">
+        <x:v>12345678</x:v>
+      </x:c>
+      <x:c r="B2" s="1">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="1">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="1">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" s="1">
+        <x:v>98765432</x:v>
+      </x:c>
+      <x:c r="B3" s="1">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="1">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="1">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" s="1"/>
+      <x:c r="B4" s="1"/>
+      <x:c r="C4" s="1"/>
+      <x:c r="D4" s="1"/>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" s="1"/>
+      <x:c r="B5" s="1"/>
+      <x:c r="C5" s="1"/>
+      <x:c r="D5" s="1"/>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6" s="1"/>
+      <x:c r="B6" s="1"/>
+      <x:c r="C6" s="1"/>
+      <x:c r="D6" s="1"/>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7" s="1"/>
+      <x:c r="B7" s="1"/>
+      <x:c r="C7" s="1"/>
+      <x:c r="D7" s="1"/>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8" s="1"/>
+      <x:c r="B8" s="1"/>
+      <x:c r="C8" s="1"/>
+      <x:c r="D8" s="1"/>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9" s="1"/>
+      <x:c r="B9" s="1"/>
+      <x:c r="C9" s="1"/>
+      <x:c r="D9" s="1"/>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10" s="1"/>
+      <x:c r="B10" s="1"/>
+      <x:c r="C10" s="1"/>
+      <x:c r="D10" s="1"/>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11" s="1"/>
+      <x:c r="B11" s="1"/>
+      <x:c r="C11" s="1"/>
+      <x:c r="D11" s="1"/>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12" s="1"/>
+      <x:c r="B12" s="1"/>
+      <x:c r="C12" s="1"/>
+      <x:c r="D12" s="1"/>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13" s="1"/>
+      <x:c r="B13" s="1"/>
+      <x:c r="C13" s="1"/>
+      <x:c r="D13" s="1"/>
+    </x:row>
+    <x:row r="14">
+      <x:c r="A14" s="1"/>
+      <x:c r="B14" s="1"/>
+      <x:c r="C14" s="1"/>
+      <x:c r="D14" s="1"/>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" s="1"/>
+      <x:c r="B15" s="1"/>
+      <x:c r="C15" s="1"/>
+      <x:c r="D15" s="1"/>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" s="1"/>
+      <x:c r="B16" s="1"/>
+      <x:c r="C16" s="1"/>
+      <x:c r="D16" s="1"/>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" s="1"/>
+      <x:c r="B17" s="1"/>
+      <x:c r="C17" s="1"/>
+      <x:c r="D17" s="1"/>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" s="1"/>
+      <x:c r="B18" s="1"/>
+      <x:c r="C18" s="1"/>
+      <x:c r="D18" s="1"/>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" s="1"/>
+      <x:c r="B19" s="1"/>
+      <x:c r="C19" s="1"/>
+      <x:c r="D19" s="1"/>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" s="1"/>
+      <x:c r="B20" s="1"/>
+      <x:c r="C20" s="1"/>
+      <x:c r="D20" s="1"/>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" s="1"/>
+      <x:c r="B21" s="1"/>
+      <x:c r="C21" s="1"/>
+      <x:c r="D21" s="1"/>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" s="1"/>
+      <x:c r="B22" s="1"/>
+      <x:c r="C22" s="1"/>
+      <x:c r="D22" s="1"/>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" s="1"/>
+      <x:c r="B23" s="1"/>
+      <x:c r="C23" s="1"/>
+      <x:c r="D23" s="1"/>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" s="1"/>
+      <x:c r="B24" s="1"/>
+      <x:c r="C24" s="1"/>
+      <x:c r="D24" s="1"/>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" s="1"/>
+      <x:c r="B25" s="1"/>
+      <x:c r="C25" s="1"/>
+      <x:c r="D25" s="1"/>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" s="1"/>
+      <x:c r="B26" s="1"/>
+      <x:c r="C26" s="1"/>
+      <x:c r="D26" s="1"/>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" s="1"/>
+      <x:c r="B27" s="1"/>
+      <x:c r="C27" s="1"/>
+      <x:c r="D27" s="1"/>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" s="1"/>
+      <x:c r="B28" s="1"/>
+      <x:c r="C28" s="1"/>
+      <x:c r="D28" s="1"/>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" s="1"/>
+      <x:c r="B29" s="1"/>
+      <x:c r="C29" s="1"/>
+      <x:c r="D29" s="1"/>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" s="1"/>
+      <x:c r="B30" s="1"/>
+      <x:c r="C30" s="1"/>
+      <x:c r="D30" s="1"/>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" s="1"/>
+      <x:c r="B31" s="1"/>
+      <x:c r="C31" s="1"/>
+      <x:c r="D31" s="1"/>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" s="1"/>
+      <x:c r="B32" s="1"/>
+      <x:c r="C32" s="1"/>
+      <x:c r="D32" s="1"/>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" s="1"/>
+      <x:c r="B33" s="1"/>
+      <x:c r="C33" s="1"/>
+      <x:c r="D33" s="1"/>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" s="1"/>
+      <x:c r="B34" s="1"/>
+      <x:c r="C34" s="1"/>
+      <x:c r="D34" s="1"/>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" s="1"/>
+      <x:c r="B35" s="1"/>
+      <x:c r="C35" s="1"/>
+      <x:c r="D35" s="1"/>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" s="1"/>
+      <x:c r="B36" s="1"/>
+      <x:c r="C36" s="1"/>
+      <x:c r="D36" s="1"/>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" s="1"/>
+      <x:c r="B37" s="1"/>
+      <x:c r="C37" s="1"/>
+      <x:c r="D37" s="1"/>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" s="1"/>
+      <x:c r="B38" s="1"/>
+      <x:c r="C38" s="1"/>
+      <x:c r="D38" s="1"/>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" s="1"/>
+      <x:c r="B39" s="1"/>
+      <x:c r="C39" s="1"/>
+      <x:c r="D39" s="1"/>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" s="1"/>
+      <x:c r="B40" s="1"/>
+      <x:c r="C40" s="1"/>
+      <x:c r="D40" s="1"/>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" s="1"/>
+      <x:c r="B41" s="1"/>
+      <x:c r="C41" s="1"/>
+      <x:c r="D41" s="1"/>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" s="1"/>
+      <x:c r="B42" s="1"/>
+      <x:c r="C42" s="1"/>
+      <x:c r="D42" s="1"/>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" s="1"/>
+      <x:c r="B43" s="1"/>
+      <x:c r="C43" s="1"/>
+      <x:c r="D43" s="1"/>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" s="1"/>
+      <x:c r="B44" s="1"/>
+      <x:c r="C44" s="1"/>
+      <x:c r="D44" s="1"/>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" s="1"/>
+      <x:c r="B45" s="1"/>
+      <x:c r="C45" s="1"/>
+      <x:c r="D45" s="1"/>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" s="1"/>
+      <x:c r="B46" s="1"/>
+      <x:c r="C46" s="1"/>
+      <x:c r="D46" s="1"/>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" s="1"/>
+      <x:c r="B47" s="1"/>
+      <x:c r="C47" s="1"/>
+      <x:c r="D47" s="1"/>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" s="1"/>
+      <x:c r="B48" s="1"/>
+      <x:c r="C48" s="1"/>
+      <x:c r="D48" s="1"/>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" s="1"/>
+      <x:c r="B49" s="1"/>
+      <x:c r="C49" s="1"/>
+      <x:c r="D49" s="1"/>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" s="1"/>
+      <x:c r="B50" s="1"/>
+      <x:c r="C50" s="1"/>
+      <x:c r="D50" s="1"/>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" s="1"/>
+      <x:c r="B51" s="1"/>
+      <x:c r="C51" s="1"/>
+      <x:c r="D51" s="1"/>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" s="1"/>
+      <x:c r="B52" s="1"/>
+      <x:c r="C52" s="1"/>
+      <x:c r="D52" s="1"/>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" s="1"/>
+      <x:c r="B53" s="1"/>
+      <x:c r="C53" s="1"/>
+      <x:c r="D53" s="1"/>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" s="1"/>
+      <x:c r="B54" s="1"/>
+      <x:c r="C54" s="1"/>
+      <x:c r="D54" s="1"/>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" s="1"/>
+      <x:c r="B55" s="1"/>
+      <x:c r="C55" s="1"/>
+      <x:c r="D55" s="1"/>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" s="1"/>
+      <x:c r="B56" s="1"/>
+      <x:c r="C56" s="1"/>
+      <x:c r="D56" s="1"/>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" s="1"/>
+      <x:c r="B57" s="1"/>
+      <x:c r="C57" s="1"/>
+      <x:c r="D57" s="1"/>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" s="1"/>
+      <x:c r="B58" s="1"/>
+      <x:c r="C58" s="1"/>
+      <x:c r="D58" s="1"/>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" s="1"/>
+      <x:c r="B59" s="1"/>
+      <x:c r="C59" s="1"/>
+      <x:c r="D59" s="1"/>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" s="1"/>
+      <x:c r="B60" s="1"/>
+      <x:c r="C60" s="1"/>
+      <x:c r="D60" s="1"/>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" s="1"/>
+      <x:c r="B61" s="1"/>
+      <x:c r="C61" s="1"/>
+      <x:c r="D61" s="1"/>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" s="1"/>
+      <x:c r="B62" s="1"/>
+      <x:c r="C62" s="1"/>
+      <x:c r="D62" s="1"/>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" s="1"/>
+      <x:c r="B63" s="1"/>
+      <x:c r="C63" s="1"/>
+      <x:c r="D63" s="1"/>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" s="1"/>
+      <x:c r="B64" s="1"/>
+      <x:c r="C64" s="1"/>
+      <x:c r="D64" s="1"/>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" s="1"/>
+      <x:c r="B65" s="1"/>
+      <x:c r="C65" s="1"/>
+      <x:c r="D65" s="1"/>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" s="1"/>
+      <x:c r="B66" s="1"/>
+      <x:c r="C66" s="1"/>
+      <x:c r="D66" s="1"/>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" s="1"/>
+      <x:c r="B67" s="1"/>
+      <x:c r="C67" s="1"/>
+      <x:c r="D67" s="1"/>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" s="1"/>
+      <x:c r="B68" s="1"/>
+      <x:c r="C68" s="1"/>
+      <x:c r="D68" s="1"/>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" s="1"/>
+      <x:c r="B69" s="1"/>
+      <x:c r="C69" s="1"/>
+      <x:c r="D69" s="1"/>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" s="1"/>
+      <x:c r="B70" s="1"/>
+      <x:c r="C70" s="1"/>
+      <x:c r="D70" s="1"/>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" s="1"/>
+      <x:c r="B71" s="1"/>
+      <x:c r="C71" s="1"/>
+      <x:c r="D71" s="1"/>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" s="1"/>
+      <x:c r="B72" s="1"/>
+      <x:c r="C72" s="1"/>
+      <x:c r="D72" s="1"/>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" s="1"/>
+      <x:c r="B73" s="1"/>
+      <x:c r="C73" s="1"/>
+      <x:c r="D73" s="1"/>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" s="1"/>
+      <x:c r="B74" s="1"/>
+      <x:c r="C74" s="1"/>
+      <x:c r="D74" s="1"/>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" s="1"/>
+      <x:c r="B75" s="1"/>
+      <x:c r="C75" s="1"/>
+      <x:c r="D75" s="1"/>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" s="1"/>
+      <x:c r="B76" s="1"/>
+      <x:c r="C76" s="1"/>
+      <x:c r="D76" s="1"/>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" s="1"/>
+      <x:c r="B77" s="1"/>
+      <x:c r="C77" s="1"/>
+      <x:c r="D77" s="1"/>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" s="1"/>
+      <x:c r="B78" s="1"/>
+      <x:c r="C78" s="1"/>
+      <x:c r="D78" s="1"/>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" s="1"/>
+      <x:c r="B79" s="1"/>
+      <x:c r="C79" s="1"/>
+      <x:c r="D79" s="1"/>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" s="1"/>
+      <x:c r="B80" s="1"/>
+      <x:c r="C80" s="1"/>
+      <x:c r="D80" s="1"/>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" s="1"/>
+      <x:c r="B81" s="1"/>
+      <x:c r="C81" s="1"/>
+      <x:c r="D81" s="1"/>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" s="1"/>
+      <x:c r="B82" s="1"/>
+      <x:c r="C82" s="1"/>
+      <x:c r="D82" s="1"/>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" s="1"/>
+      <x:c r="B83" s="1"/>
+      <x:c r="C83" s="1"/>
+      <x:c r="D83" s="1"/>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" s="1"/>
+      <x:c r="B84" s="1"/>
+      <x:c r="C84" s="1"/>
+      <x:c r="D84" s="1"/>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" s="1"/>
+      <x:c r="B85" s="1"/>
+      <x:c r="C85" s="1"/>
+      <x:c r="D85" s="1"/>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" s="1"/>
+      <x:c r="B86" s="1"/>
+      <x:c r="C86" s="1"/>
+      <x:c r="D86" s="1"/>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" s="1"/>
+      <x:c r="B87" s="1"/>
+      <x:c r="C87" s="1"/>
+      <x:c r="D87" s="1"/>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" s="1"/>
+      <x:c r="B88" s="1"/>
+      <x:c r="C88" s="1"/>
+      <x:c r="D88" s="1"/>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" s="1"/>
+      <x:c r="B89" s="1"/>
+      <x:c r="C89" s="1"/>
+      <x:c r="D89" s="1"/>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" s="1"/>
+      <x:c r="B90" s="1"/>
+      <x:c r="C90" s="1"/>
+      <x:c r="D90" s="1"/>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" s="1"/>
+      <x:c r="B91" s="1"/>
+      <x:c r="C91" s="1"/>
+      <x:c r="D91" s="1"/>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" s="1"/>
+      <x:c r="B92" s="1"/>
+      <x:c r="C92" s="1"/>
+      <x:c r="D92" s="1"/>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" s="1"/>
+      <x:c r="B93" s="1"/>
+      <x:c r="C93" s="1"/>
+      <x:c r="D93" s="1"/>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" s="1"/>
+      <x:c r="B94" s="1"/>
+      <x:c r="C94" s="1"/>
+      <x:c r="D94" s="1"/>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" s="1"/>
+      <x:c r="B95" s="1"/>
+      <x:c r="C95" s="1"/>
+      <x:c r="D95" s="1"/>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" s="1"/>
+      <x:c r="B96" s="1"/>
+      <x:c r="C96" s="1"/>
+      <x:c r="D96" s="1"/>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" s="1"/>
+      <x:c r="B97" s="1"/>
+      <x:c r="C97" s="1"/>
+      <x:c r="D97" s="1"/>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" s="1"/>
+      <x:c r="B98" s="1"/>
+      <x:c r="C98" s="1"/>
+      <x:c r="D98" s="1"/>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" s="1"/>
+      <x:c r="B99" s="1"/>
+      <x:c r="C99" s="1"/>
+      <x:c r="D99" s="1"/>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" s="1"/>
+      <x:c r="B100" s="1"/>
+      <x:c r="C100" s="1"/>
+      <x:c r="D100" s="1"/>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" s="1"/>
+      <x:c r="B101" s="1"/>
+      <x:c r="C101" s="1"/>
+      <x:c r="D101" s="1"/>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" s="1"/>
+      <x:c r="B102" s="1"/>
+      <x:c r="C102" s="1"/>
+      <x:c r="D102" s="1"/>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" s="1"/>
+      <x:c r="B103" s="1"/>
+      <x:c r="C103" s="1"/>
+      <x:c r="D103" s="1"/>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" s="1"/>
+      <x:c r="B104" s="1"/>
+      <x:c r="C104" s="1"/>
+      <x:c r="D104" s="1"/>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" s="1"/>
+      <x:c r="B105" s="1"/>
+      <x:c r="C105" s="1"/>
+      <x:c r="D105" s="1"/>
+    </x:row>
+    <x:row r="106">
+      <x:c r="A106" s="1"/>
+      <x:c r="B106" s="1"/>
+      <x:c r="C106" s="1"/>
+      <x:c r="D106" s="1"/>
+    </x:row>
+    <x:row r="107">
+      <x:c r="A107" s="1"/>
+      <x:c r="B107" s="1"/>
+      <x:c r="C107" s="1"/>
+      <x:c r="D107" s="1"/>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" s="1"/>
+      <x:c r="B108" s="1"/>
+      <x:c r="C108" s="1"/>
+      <x:c r="D108" s="1"/>
+    </x:row>
+    <x:row r="109">
+      <x:c r="A109" s="1"/>
+      <x:c r="B109" s="1"/>
+      <x:c r="C109" s="1"/>
+      <x:c r="D109" s="1"/>
+    </x:row>
+    <x:row r="110">
+      <x:c r="A110" s="1"/>
+      <x:c r="B110" s="1"/>
+      <x:c r="C110" s="1"/>
+      <x:c r="D110" s="1"/>
+    </x:row>
+    <x:row r="111">
+      <x:c r="A111" s="1"/>
+      <x:c r="B111" s="1"/>
+      <x:c r="C111" s="1"/>
+      <x:c r="D111" s="1"/>
+    </x:row>
+    <x:row r="112">
+      <x:c r="A112" s="1"/>
+      <x:c r="B112" s="1"/>
+      <x:c r="C112" s="1"/>
+      <x:c r="D112" s="1"/>
+    </x:row>
+    <x:row r="113">
+      <x:c r="A113" s="1"/>
+      <x:c r="B113" s="1"/>
+      <x:c r="C113" s="1"/>
+      <x:c r="D113" s="1"/>
+    </x:row>
+    <x:row r="114">
+      <x:c r="A114" s="1"/>
+      <x:c r="B114" s="1"/>
+      <x:c r="C114" s="1"/>
+      <x:c r="D114" s="1"/>
+    </x:row>
+    <x:row r="115">
+      <x:c r="A115" s="1"/>
+      <x:c r="B115" s="1"/>
+      <x:c r="C115" s="1"/>
+      <x:c r="D115" s="1"/>
+    </x:row>
+    <x:row r="116">
+      <x:c r="A116" s="1"/>
+      <x:c r="B116" s="1"/>
+      <x:c r="C116" s="1"/>
+      <x:c r="D116" s="1"/>
+    </x:row>
+    <x:row r="117">
+      <x:c r="A117" s="1"/>
+      <x:c r="B117" s="1"/>
+      <x:c r="C117" s="1"/>
+      <x:c r="D117" s="1"/>
+    </x:row>
+    <x:row r="118">
+      <x:c r="A118" s="1"/>
+      <x:c r="B118" s="1"/>
+      <x:c r="C118" s="1"/>
+      <x:c r="D118" s="1"/>
+    </x:row>
+    <x:row r="119">
+      <x:c r="A119" s="1"/>
+      <x:c r="B119" s="1"/>
+      <x:c r="C119" s="1"/>
+      <x:c r="D119" s="1"/>
+    </x:row>
+    <x:row r="120">
+      <x:c r="A120" s="1"/>
+      <x:c r="B120" s="1"/>
+      <x:c r="C120" s="1"/>
+      <x:c r="D120" s="1"/>
+    </x:row>
+    <x:row r="121">
+      <x:c r="A121" s="1"/>
+      <x:c r="B121" s="1"/>
+      <x:c r="C121" s="1"/>
+      <x:c r="D121" s="1"/>
+    </x:row>
+    <x:row r="122">
+      <x:c r="A122" s="1"/>
+      <x:c r="B122" s="1"/>
+      <x:c r="C122" s="1"/>
+      <x:c r="D122" s="1"/>
+    </x:row>
+    <x:row r="123">
+      <x:c r="A123" s="1"/>
+      <x:c r="B123" s="1"/>
+      <x:c r="C123" s="1"/>
+      <x:c r="D123" s="1"/>
+    </x:row>
+    <x:row r="124">
+      <x:c r="A124" s="1"/>
+      <x:c r="B124" s="1"/>
+      <x:c r="C124" s="1"/>
+      <x:c r="D124" s="1"/>
+    </x:row>
+    <x:row r="125">
+      <x:c r="A125" s="1"/>
+      <x:c r="B125" s="1"/>
+      <x:c r="C125" s="1"/>
+      <x:c r="D125" s="1"/>
+    </x:row>
+    <x:row r="126">
+      <x:c r="A126" s="1"/>
+      <x:c r="B126" s="1"/>
+      <x:c r="C126" s="1"/>
+      <x:c r="D126" s="1"/>
+    </x:row>
+    <x:row r="127">
+      <x:c r="A127" s="1"/>
+      <x:c r="B127" s="1"/>
+      <x:c r="C127" s="1"/>
+      <x:c r="D127" s="1"/>
+    </x:row>
+    <x:row r="128">
+      <x:c r="A128" s="1"/>
+      <x:c r="B128" s="1"/>
+      <x:c r="C128" s="1"/>
+      <x:c r="D128" s="1"/>
+    </x:row>
+    <x:row r="129">
+      <x:c r="A129" s="1"/>
+      <x:c r="B129" s="1"/>
+      <x:c r="C129" s="1"/>
+      <x:c r="D129" s="1"/>
+    </x:row>
+    <x:row r="130">
+      <x:c r="A130" s="1"/>
+      <x:c r="B130" s="1"/>
+      <x:c r="C130" s="1"/>
+      <x:c r="D130" s="1"/>
+    </x:row>
+    <x:row r="131">
+      <x:c r="A131" s="1"/>
+      <x:c r="B131" s="1"/>
+      <x:c r="C131" s="1"/>
+      <x:c r="D131" s="1"/>
+    </x:row>
+    <x:row r="132">
+      <x:c r="A132" s="1"/>
+      <x:c r="B132" s="1"/>
+      <x:c r="C132" s="1"/>
+      <x:c r="D132" s="1"/>
+    </x:row>
+    <x:row r="133">
+      <x:c r="A133" s="1"/>
+      <x:c r="B133" s="1"/>
+      <x:c r="C133" s="1"/>
+      <x:c r="D133" s="1"/>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" s="1"/>
+      <x:c r="B134" s="1"/>
+      <x:c r="C134" s="1"/>
+      <x:c r="D134" s="1"/>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" s="1"/>
+      <x:c r="B135" s="1"/>
+      <x:c r="C135" s="1"/>
+      <x:c r="D135" s="1"/>
+    </x:row>
+    <x:row r="136">
+      <x:c r="A136" s="1"/>
+      <x:c r="B136" s="1"/>
+      <x:c r="C136" s="1"/>
+      <x:c r="D136" s="1"/>
+    </x:row>
+    <x:row r="137">
+      <x:c r="A137" s="1"/>
+      <x:c r="B137" s="1"/>
+      <x:c r="C137" s="1"/>
+      <x:c r="D137" s="1"/>
+    </x:row>
+    <x:row r="138">
+      <x:c r="A138" s="1"/>
+      <x:c r="B138" s="1"/>
+      <x:c r="C138" s="1"/>
+      <x:c r="D138" s="1"/>
+    </x:row>
+    <x:row r="139">
+      <x:c r="A139" s="1"/>
+      <x:c r="B139" s="1"/>
+      <x:c r="C139" s="1"/>
+      <x:c r="D139" s="1"/>
+    </x:row>
+    <x:row r="140">
+      <x:c r="A140" s="1"/>
+      <x:c r="B140" s="1"/>
+      <x:c r="C140" s="1"/>
+      <x:c r="D140" s="1"/>
+    </x:row>
+    <x:row r="141">
+      <x:c r="A141" s="1"/>
+      <x:c r="B141" s="1"/>
+      <x:c r="C141" s="1"/>
+      <x:c r="D141" s="1"/>
+    </x:row>
+    <x:row r="142">
+      <x:c r="A142" s="1"/>
+      <x:c r="B142" s="1"/>
+      <x:c r="C142" s="1"/>
+      <x:c r="D142" s="1"/>
+    </x:row>
+    <x:row r="143">
+      <x:c r="A143" s="1"/>
+      <x:c r="B143" s="1"/>
+      <x:c r="C143" s="1"/>
+      <x:c r="D143" s="1"/>
+    </x:row>
+    <x:row r="144">
+      <x:c r="A144" s="1"/>
+      <x:c r="B144" s="1"/>
+      <x:c r="C144" s="1"/>
+      <x:c r="D144" s="1"/>
+    </x:row>
+    <x:row r="145">
+      <x:c r="A145" s="1"/>
+      <x:c r="B145" s="1"/>
+      <x:c r="C145" s="1"/>
+      <x:c r="D145" s="1"/>
+    </x:row>
+    <x:row r="146">
+      <x:c r="A146" s="1"/>
+      <x:c r="B146" s="1"/>
+      <x:c r="C146" s="1"/>
+      <x:c r="D146" s="1"/>
+    </x:row>
+    <x:row r="147">
+      <x:c r="A147" s="1"/>
+      <x:c r="B147" s="1"/>
+      <x:c r="C147" s="1"/>
+      <x:c r="D147" s="1"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/birdsProject/Data.xlsx
+++ b/birdsProject/Data.xlsx
@@ -25,80 +25,92 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Specie</t>
-  </si>
-  <si>
-    <t>Subspecie</t>
-  </si>
-  <si>
-    <t>Birth date</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Cage id</t>
-  </si>
-  <si>
-    <t>Father id</t>
-  </si>
-  <si>
-    <t>Mother id</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Hight</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>19011998</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>19/02/99</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>27121959</t>
-  </si>
-  <si>
-    <t>12345677</t>
-  </si>
-  <si>
-    <t>12345676</t>
-  </si>
-  <si>
-    <t>Matirial</t>
-  </si>
-  <si>
-    <t>steel</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="4">
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Specie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subspecie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Birth date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cage id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Father id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mother id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Length</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Width</x:t>
+  </x:si>
+  <x:si>
+    <x:t>blue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pink</x:t>
+  </x:si>
+  <x:si>
+    <x:t>male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19011998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/02/99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27121959</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12345677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12345676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Matirial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>steel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12345678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wood</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,25 +432,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1:H4"/>
+  <x:dimension ref="A1:H5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="D4" sqref="D4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="19" customWidth="1"/>
     <x:col min="2" max="2" width="22" customWidth="1"/>
     <x:col min="3" max="3" width="21" customWidth="1"/>
-    <x:col min="4" max="4" width="20.140625" customWidth="1"/>
-    <x:col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <x:col min="4" max="4" width="20" customWidth="1"/>
+    <x:col min="5" max="5" width="13" customWidth="1"/>
     <x:col min="6" max="6" width="16" customWidth="1"/>
-    <x:col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <x:col min="8" max="8" width="15" customWidth="1"/>
+    <x:col min="7" max="8" width="15" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="1">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -464,7 +475,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="2">
       <x:c r="A2" s="1">
         <x:v>12345677</x:v>
       </x:c>
@@ -490,7 +501,7 @@
         <x:v>11111111</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="3">
       <x:c r="A3" s="1">
         <x:v>12345676</x:v>
       </x:c>
@@ -516,7 +527,7 @@
         <x:v>11111111</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <x:row r="4">
       <x:c r="A4" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -539,6 +550,32 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H5" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
@@ -549,7 +586,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{4C1CCB87-1AF4-489A-AF67-5BAE6F6F2954}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1:E147"/>
+  <x:dimension ref="A1:F147"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:selection activeCell="F7" sqref="F7"/>
@@ -557,8 +594,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <x:col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <x:col min="1" max="1" width="13" customWidth="1"/>
+    <x:col min="2" max="2" width="19" customWidth="1"/>
     <x:col min="3" max="3" width="16" customWidth="1"/>
     <x:col min="4" max="4" width="17" customWidth="1"/>
     <x:col min="5" max="5" width="14" customWidth="1"/>
@@ -582,20 +619,23 @@
       </x:c>
     </x:row>
     <x:row r="2">
-      <x:c r="A2" s="1">
-        <x:v>12345678</x:v>
-      </x:c>
-      <x:c r="B2" s="1">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C2" s="1">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D2" s="1">
-        <x:v>20</x:v>
+      <x:c r="A2" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
         <x:v>23</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="3">

--- a/birdsProject/Data.xlsx
+++ b/birdsProject/Data.xlsx
@@ -9,7 +9,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4CB5F-D5DE-4069-AC37-CEA3DC240959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="7590" yWindow="4380" windowWidth="28800" windowHeight="10620" activeTab="1"/>
+    <x:workbookView xWindow="7590" yWindow="4380" windowWidth="28800" windowHeight="10620"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A1:H5"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
+    <x:sheetView tabSelected="1" workbookViewId="0">
       <x:selection activeCell="D4" sqref="D4"/>
     </x:sheetView>
   </x:sheetViews>
@@ -588,7 +588,7 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{4C1CCB87-1AF4-489A-AF67-5BAE6F6F2954}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:dimension ref="A1:F147"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="F7" sqref="F7"/>
     </x:sheetView>
   </x:sheetViews>
